--- a/BackTest/2020-01-21 BackTest WOM.xlsx
+++ b/BackTest/2020-01-21 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -804,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -874,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -944,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1014,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1049,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1084,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1119,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1329,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1364,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1399,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1434,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1574,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1609,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1644,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1749,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2181,6 +2235,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2224,6 +2279,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2265,6 +2321,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2300,6 +2357,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2335,6 +2393,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2376,6 +2435,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2417,6 +2477,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2456,6 +2517,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2495,6 +2557,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2536,6 +2599,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2577,6 +2641,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,6 +2681,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2657,6 +2723,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2698,6 +2765,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2739,6 +2807,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2778,6 +2847,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2817,6 +2887,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2856,6 +2927,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2895,6 +2967,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2934,6 +3007,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2973,6 +3047,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3012,6 +3087,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3051,6 +3127,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3090,6 +3167,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3131,6 +3209,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3172,6 +3251,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3213,6 +3293,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3254,6 +3335,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3295,6 +3377,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3334,6 +3417,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3373,6 +3457,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3412,6 +3497,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3451,6 +3537,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3490,6 +3577,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3529,6 +3617,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3568,6 +3657,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3607,6 +3697,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3646,6 +3737,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3685,6 +3777,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3724,6 +3817,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3765,6 +3859,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3806,6 +3901,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3847,6 +3943,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3886,6 +3983,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3925,6 +4023,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3964,6 +4063,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4003,6 +4103,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4042,6 +4143,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4081,6 +4183,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4120,6 +4223,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4159,6 +4263,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4198,6 +4303,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4239,6 +4345,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4280,6 +4387,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4321,6 +4429,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4362,6 +4471,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4403,6 +4513,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4444,6 +4555,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4483,6 +4595,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4524,6 +4637,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4565,6 +4679,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest WOM.xlsx
+++ b/BackTest/2020-01-21 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>69.98999999999999</v>
+        <v>67.31</v>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>67.31</v>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>67.31</v>
       </c>
       <c r="E2" t="n">
-        <v>69.98999999999999</v>
+        <v>67.31</v>
       </c>
       <c r="F2" t="n">
-        <v>6193.968</v>
+        <v>122.1492</v>
       </c>
       <c r="G2" t="n">
-        <v>-353871.2824919323</v>
+        <v>-327980.8958654488</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>67.3</v>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>67.3</v>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>67.3</v>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>67.3</v>
       </c>
       <c r="F3" t="n">
-        <v>13642.696</v>
+        <v>467.7446</v>
       </c>
       <c r="G3" t="n">
-        <v>-353871.2824919323</v>
+        <v>-328448.6404654488</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K3" t="n">
+        <v>67.31</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>70.25</v>
+        <v>67.3</v>
       </c>
       <c r="C4" t="n">
-        <v>70.25</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>70.25</v>
+        <v>67.3</v>
       </c>
       <c r="E4" t="n">
-        <v>70.25</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>3587.060498220641</v>
+        <v>25916.263</v>
       </c>
       <c r="G4" t="n">
-        <v>-350284.2219937117</v>
+        <v>-354364.9034654488</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -534,8 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +556,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>12636.9687</v>
+        <v>10165.1714</v>
       </c>
       <c r="G5" t="n">
-        <v>-362921.1906937117</v>
+        <v>-354364.9034654488</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>67.20999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69.3</v>
+        <v>68.19</v>
       </c>
       <c r="C6" t="n">
-        <v>69.02</v>
+        <v>68.7</v>
       </c>
       <c r="D6" t="n">
-        <v>69.3</v>
+        <v>68.7</v>
       </c>
       <c r="E6" t="n">
-        <v>69.02</v>
+        <v>68.19</v>
       </c>
       <c r="F6" t="n">
-        <v>13222.5752</v>
+        <v>110558.5115</v>
       </c>
       <c r="G6" t="n">
-        <v>-376143.7658937117</v>
+        <v>-243806.3919654488</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>67.20999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +644,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C7" t="n">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D7" t="n">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="E7" t="n">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F7" t="n">
-        <v>6788.5629</v>
+        <v>9790.427100000001</v>
       </c>
       <c r="G7" t="n">
-        <v>-369355.2029937117</v>
+        <v>-243806.3919654488</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -642,8 +668,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +686,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70.09</v>
+        <v>68.7</v>
       </c>
       <c r="C8" t="n">
-        <v>70.09</v>
+        <v>68.69</v>
       </c>
       <c r="D8" t="n">
-        <v>70.09</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>70.09</v>
+        <v>68.69</v>
       </c>
       <c r="F8" t="n">
-        <v>3315.7553</v>
+        <v>83039.39720000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-366039.4476937117</v>
+        <v>-326845.7891654487</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +710,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +728,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70.09</v>
+        <v>70</v>
       </c>
       <c r="C9" t="n">
-        <v>70.09</v>
+        <v>70</v>
       </c>
       <c r="D9" t="n">
-        <v>70.09</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
-        <v>70.09</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>1492.2817</v>
+        <v>3174.3039</v>
       </c>
       <c r="G9" t="n">
-        <v>-366039.4476937117</v>
+        <v>-323671.4852654487</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +752,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +770,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>70.25</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>70.25</v>
+        <v>70.38</v>
       </c>
       <c r="D10" t="n">
-        <v>70.25</v>
+        <v>70.38</v>
       </c>
       <c r="E10" t="n">
-        <v>70.25</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>1811.843416370107</v>
+        <v>35182.0122</v>
       </c>
       <c r="G10" t="n">
-        <v>-364227.6042773416</v>
+        <v>-288489.4730654488</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +812,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70.25</v>
+        <v>70.38</v>
       </c>
       <c r="C11" t="n">
-        <v>70.25</v>
+        <v>71</v>
       </c>
       <c r="D11" t="n">
-        <v>70.25</v>
+        <v>71</v>
       </c>
       <c r="E11" t="n">
-        <v>70.25</v>
+        <v>70.38</v>
       </c>
       <c r="F11" t="n">
-        <v>235.1618854092527</v>
+        <v>9999</v>
       </c>
       <c r="G11" t="n">
-        <v>-364227.6042773416</v>
+        <v>-278490.4730654488</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +836,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +854,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>70.48999999999999</v>
+        <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>70.48999999999999</v>
+        <v>71.37</v>
       </c>
       <c r="D12" t="n">
-        <v>70.48999999999999</v>
+        <v>71.38</v>
       </c>
       <c r="E12" t="n">
-        <v>70.48999999999999</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>1785.1039</v>
+        <v>47219.36316659199</v>
       </c>
       <c r="G12" t="n">
-        <v>-362442.5003773416</v>
+        <v>-231271.1098988568</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +896,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>70.48999999999999</v>
+        <v>71.37</v>
       </c>
       <c r="C13" t="n">
-        <v>70.48999999999999</v>
+        <v>72</v>
       </c>
       <c r="D13" t="n">
-        <v>70.48999999999999</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
-        <v>70.48999999999999</v>
+        <v>71.37</v>
       </c>
       <c r="F13" t="n">
-        <v>5347.602958221024</v>
+        <v>18000</v>
       </c>
       <c r="G13" t="n">
-        <v>-362442.5003773416</v>
+        <v>-213271.1098988568</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +938,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>70.48999999999999</v>
+        <v>72</v>
       </c>
       <c r="C14" t="n">
-        <v>70.25</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>70.5</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>70.2</v>
+        <v>72</v>
       </c>
       <c r="F14" t="n">
-        <v>17062.6707</v>
+        <v>32288.4299</v>
       </c>
       <c r="G14" t="n">
-        <v>-379505.1710773416</v>
+        <v>-180982.6799988568</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +980,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>70</v>
+        <v>72.55</v>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>72.55</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" t="n">
-        <v>2000</v>
+        <v>30107.5983</v>
       </c>
       <c r="G15" t="n">
-        <v>-381505.1710773416</v>
+        <v>-211090.2782988568</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1022,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>70.5</v>
+        <v>72.47</v>
       </c>
       <c r="C16" t="n">
-        <v>70.5</v>
+        <v>72.45</v>
       </c>
       <c r="D16" t="n">
-        <v>70.5</v>
+        <v>72.47</v>
       </c>
       <c r="E16" t="n">
-        <v>70.5</v>
+        <v>72.45</v>
       </c>
       <c r="F16" t="n">
-        <v>36.9627</v>
+        <v>3096.8429</v>
       </c>
       <c r="G16" t="n">
-        <v>-381468.2083773416</v>
+        <v>-214187.1211988568</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1064,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>70</v>
+        <v>72.45</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>72.55</v>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>72.56</v>
       </c>
       <c r="E17" t="n">
-        <v>70</v>
+        <v>72.45</v>
       </c>
       <c r="F17" t="n">
-        <v>595</v>
+        <v>5720</v>
       </c>
       <c r="G17" t="n">
-        <v>-382063.2083773416</v>
+        <v>-208467.1211988568</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1088,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1106,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>70</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>70</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="E18" t="n">
-        <v>70</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>154.6854</v>
+        <v>100626.2001355714</v>
       </c>
       <c r="G18" t="n">
-        <v>-382063.2083773416</v>
+        <v>-309093.3213344282</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,34 +1130,42 @@
         <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>1.071957361461893</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.000148588410104</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>70.45</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>70.45</v>
+        <v>68.11</v>
       </c>
       <c r="D19" t="n">
-        <v>70.45</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>70.45</v>
+        <v>68.11</v>
       </c>
       <c r="F19" t="n">
-        <v>25.9381</v>
+        <v>182.1394</v>
       </c>
       <c r="G19" t="n">
-        <v>-382037.2702773416</v>
+        <v>-309275.4607344281</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,28 +1186,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>69.8</v>
+        <v>68.41</v>
       </c>
       <c r="C20" t="n">
-        <v>69.70999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="D20" t="n">
-        <v>69.8</v>
+        <v>72.3</v>
       </c>
       <c r="E20" t="n">
-        <v>69.70999999999999</v>
+        <v>68.41</v>
       </c>
       <c r="F20" t="n">
-        <v>4999.9854</v>
+        <v>92</v>
       </c>
       <c r="G20" t="n">
-        <v>-387037.2556773416</v>
+        <v>-309183.4607344281</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1222,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>69.70999999999999</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>69.59999999999999</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>69.70999999999999</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>69.59999999999999</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>5728.5127</v>
+        <v>13343.604</v>
       </c>
       <c r="G21" t="n">
-        <v>-392765.7683773416</v>
+        <v>-322527.0647344281</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,22 +1258,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>69.59999999999999</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>69.45</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>69.59999999999999</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>69.45</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>3512.5474</v>
+        <v>25226.2446</v>
       </c>
       <c r="G22" t="n">
-        <v>-396278.3157773416</v>
+        <v>-322527.0647344281</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1294,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>69.8</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>69.8</v>
+        <v>71.58</v>
       </c>
       <c r="D23" t="n">
-        <v>69.8</v>
+        <v>71.8</v>
       </c>
       <c r="E23" t="n">
-        <v>69.8</v>
+        <v>68.27</v>
       </c>
       <c r="F23" t="n">
-        <v>2669.9834</v>
+        <v>36898.5251</v>
       </c>
       <c r="G23" t="n">
-        <v>-393608.3323773416</v>
+        <v>-285628.5396344281</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1330,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>69.8</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>69.7</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>69.8</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>69.45999999999999</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>5552.3349</v>
+        <v>63649.1065</v>
       </c>
       <c r="G24" t="n">
-        <v>-399160.6672773416</v>
+        <v>-349277.6461344281</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1366,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>70.3</v>
+        <v>69.55</v>
       </c>
       <c r="C25" t="n">
-        <v>70.3</v>
+        <v>68.5</v>
       </c>
       <c r="D25" t="n">
-        <v>70.3</v>
+        <v>69.55</v>
       </c>
       <c r="E25" t="n">
-        <v>70.3</v>
+        <v>68.5</v>
       </c>
       <c r="F25" t="n">
-        <v>499.4046</v>
+        <v>10122.74315995687</v>
       </c>
       <c r="G25" t="n">
-        <v>-398661.2626773416</v>
+        <v>-359400.389294385</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>70.43000000000001</v>
+        <v>68.53</v>
       </c>
       <c r="C26" t="n">
-        <v>70.43000000000001</v>
+        <v>68.53</v>
       </c>
       <c r="D26" t="n">
-        <v>70.43000000000001</v>
+        <v>68.53</v>
       </c>
       <c r="E26" t="n">
-        <v>70.43000000000001</v>
+        <v>68.53</v>
       </c>
       <c r="F26" t="n">
-        <v>4372.8707</v>
+        <v>2931.8429</v>
       </c>
       <c r="G26" t="n">
-        <v>-394288.3919773416</v>
+        <v>-356468.546394385</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,28 +1438,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>70.3</v>
+        <v>70.09</v>
       </c>
       <c r="C27" t="n">
-        <v>70.3</v>
+        <v>70.19</v>
       </c>
       <c r="D27" t="n">
-        <v>70.3</v>
+        <v>70.19</v>
       </c>
       <c r="E27" t="n">
-        <v>70.3</v>
+        <v>70.09</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5954</v>
+        <v>10485.6822178373</v>
       </c>
       <c r="G27" t="n">
-        <v>-394288.9873773415</v>
+        <v>-345982.8641765477</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1474,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="C28" t="n">
-        <v>70.75</v>
+        <v>70.2</v>
       </c>
       <c r="D28" t="n">
-        <v>70.75</v>
+        <v>70.2</v>
       </c>
       <c r="E28" t="n">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="F28" t="n">
-        <v>4817.3193</v>
+        <v>3589.615384615385</v>
       </c>
       <c r="G28" t="n">
-        <v>-389471.6680773416</v>
+        <v>-342393.2487919323</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1510,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>70.75</v>
+        <v>69.41</v>
       </c>
       <c r="C29" t="n">
-        <v>70.75</v>
+        <v>69.41</v>
       </c>
       <c r="D29" t="n">
-        <v>70.75</v>
+        <v>69.41</v>
       </c>
       <c r="E29" t="n">
-        <v>70.75</v>
+        <v>69.41</v>
       </c>
       <c r="F29" t="n">
-        <v>58.6258</v>
+        <v>5634.0657</v>
       </c>
       <c r="G29" t="n">
-        <v>-389471.6680773416</v>
+        <v>-348027.3144919323</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1546,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>70.75</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>71</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>70.75</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>1259.064</v>
+        <v>350</v>
       </c>
       <c r="G30" t="n">
-        <v>-388212.6040773416</v>
+        <v>-347677.3144919323</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1582,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>71</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="n">
-        <v>71</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>4988.482</v>
+        <v>6193.968</v>
       </c>
       <c r="G31" t="n">
-        <v>-388212.6040773416</v>
+        <v>-353871.2824919323</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1618,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="n">
-        <v>71.19</v>
+        <v>70</v>
       </c>
       <c r="D32" t="n">
-        <v>71.19</v>
+        <v>70</v>
       </c>
       <c r="E32" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" t="n">
-        <v>3990.3626</v>
+        <v>13642.696</v>
       </c>
       <c r="G32" t="n">
-        <v>-384222.2414773416</v>
+        <v>-353871.2824919323</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1654,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>71.3</v>
+        <v>70.25</v>
       </c>
       <c r="C33" t="n">
-        <v>71.3</v>
+        <v>70.25</v>
       </c>
       <c r="D33" t="n">
-        <v>71.3</v>
+        <v>70.25</v>
       </c>
       <c r="E33" t="n">
-        <v>71.3</v>
+        <v>70.25</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>3587.060498220641</v>
       </c>
       <c r="G33" t="n">
-        <v>-384202.2414773416</v>
+        <v>-350284.2219937117</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1690,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>71.29000000000001</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>71.3</v>
+        <v>70</v>
       </c>
       <c r="D34" t="n">
-        <v>71.3</v>
+        <v>70</v>
       </c>
       <c r="E34" t="n">
-        <v>71.29000000000001</v>
+        <v>70</v>
       </c>
       <c r="F34" t="n">
-        <v>1579.1651</v>
+        <v>12636.9687</v>
       </c>
       <c r="G34" t="n">
-        <v>-384202.2414773416</v>
+        <v>-362921.1906937117</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1726,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>71.19</v>
+        <v>69.3</v>
       </c>
       <c r="C35" t="n">
-        <v>71.19</v>
+        <v>69.02</v>
       </c>
       <c r="D35" t="n">
-        <v>71.19</v>
+        <v>69.3</v>
       </c>
       <c r="E35" t="n">
-        <v>71.19</v>
+        <v>69.02</v>
       </c>
       <c r="F35" t="n">
-        <v>668.2380000000001</v>
+        <v>13222.5752</v>
       </c>
       <c r="G35" t="n">
-        <v>-384870.4794773416</v>
+        <v>-376143.7658937117</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1762,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>71.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>71.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>71.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>71.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>703.2348804500704</v>
+        <v>6788.5629</v>
       </c>
       <c r="G36" t="n">
-        <v>-385573.7143577916</v>
+        <v>-369355.2029937117</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1710,16 +1810,16 @@
         <v>70.09</v>
       </c>
       <c r="F37" t="n">
-        <v>487.9632</v>
+        <v>3315.7553</v>
       </c>
       <c r="G37" t="n">
-        <v>-386061.6775577916</v>
+        <v>-366039.4476937117</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,22 +1834,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.89</v>
+        <v>70.09</v>
       </c>
       <c r="C38" t="n">
-        <v>68.5</v>
+        <v>70.09</v>
       </c>
       <c r="D38" t="n">
-        <v>69.89</v>
+        <v>70.09</v>
       </c>
       <c r="E38" t="n">
-        <v>68.5</v>
+        <v>70.09</v>
       </c>
       <c r="F38" t="n">
-        <v>12505.3117</v>
+        <v>1492.2817</v>
       </c>
       <c r="G38" t="n">
-        <v>-398566.9892577917</v>
+        <v>-366039.4476937117</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,28 +1870,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68.62</v>
+        <v>70.25</v>
       </c>
       <c r="C39" t="n">
-        <v>68.62</v>
+        <v>70.25</v>
       </c>
       <c r="D39" t="n">
-        <v>68.62</v>
+        <v>70.25</v>
       </c>
       <c r="E39" t="n">
-        <v>68.62</v>
+        <v>70.25</v>
       </c>
       <c r="F39" t="n">
-        <v>2960.7907</v>
+        <v>1811.843416370107</v>
       </c>
       <c r="G39" t="n">
-        <v>-395606.1985577916</v>
+        <v>-364227.6042773416</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,22 +1906,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>69.40000000000001</v>
+        <v>70.25</v>
       </c>
       <c r="C40" t="n">
-        <v>69.40000000000001</v>
+        <v>70.25</v>
       </c>
       <c r="D40" t="n">
-        <v>69.40000000000001</v>
+        <v>70.25</v>
       </c>
       <c r="E40" t="n">
-        <v>69.40000000000001</v>
+        <v>70.25</v>
       </c>
       <c r="F40" t="n">
-        <v>720.4610951008646</v>
+        <v>235.1618854092527</v>
       </c>
       <c r="G40" t="n">
-        <v>-394885.7374626908</v>
+        <v>-364227.6042773416</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1942,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>68.62</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>68.12</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>68.62</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>68.12</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>28491.085</v>
+        <v>1785.1039</v>
       </c>
       <c r="G41" t="n">
-        <v>-423376.8224626908</v>
+        <v>-362442.5003773416</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,28 +1978,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68.69</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>68.69</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>68.69</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>68.69</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>29.3852</v>
+        <v>5347.602958221024</v>
       </c>
       <c r="G42" t="n">
-        <v>-423347.4372626908</v>
+        <v>-362442.5003773416</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +2014,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68.69</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>68.69</v>
+        <v>70.25</v>
       </c>
       <c r="D43" t="n">
-        <v>68.69</v>
+        <v>70.5</v>
       </c>
       <c r="E43" t="n">
-        <v>68.69</v>
+        <v>70.2</v>
       </c>
       <c r="F43" t="n">
-        <v>777</v>
+        <v>17062.6707</v>
       </c>
       <c r="G43" t="n">
-        <v>-423347.4372626908</v>
+        <v>-379505.1710773416</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +2050,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68.69</v>
+        <v>70</v>
       </c>
       <c r="C44" t="n">
-        <v>68.69</v>
+        <v>70</v>
       </c>
       <c r="D44" t="n">
-        <v>68.69</v>
+        <v>70</v>
       </c>
       <c r="E44" t="n">
-        <v>68.69</v>
+        <v>70</v>
       </c>
       <c r="F44" t="n">
-        <v>888</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="n">
-        <v>-423347.4372626908</v>
+        <v>-381505.1710773416</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +2086,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>68.69</v>
+        <v>70.5</v>
       </c>
       <c r="C45" t="n">
-        <v>68.69</v>
+        <v>70.5</v>
       </c>
       <c r="D45" t="n">
-        <v>68.69</v>
+        <v>70.5</v>
       </c>
       <c r="E45" t="n">
-        <v>68.69</v>
+        <v>70.5</v>
       </c>
       <c r="F45" t="n">
-        <v>5593.1818</v>
+        <v>36.9627</v>
       </c>
       <c r="G45" t="n">
-        <v>-423347.4372626908</v>
+        <v>-381468.2083773416</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2122,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>68.8</v>
+        <v>70</v>
       </c>
       <c r="C46" t="n">
-        <v>68.15000000000001</v>
+        <v>70</v>
       </c>
       <c r="D46" t="n">
-        <v>68.8</v>
+        <v>70</v>
       </c>
       <c r="E46" t="n">
-        <v>68.15000000000001</v>
+        <v>70</v>
       </c>
       <c r="F46" t="n">
-        <v>16310.40448604651</v>
+        <v>595</v>
       </c>
       <c r="G46" t="n">
-        <v>-439657.8417487373</v>
+        <v>-382063.2083773416</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2158,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>68.16</v>
+        <v>70</v>
       </c>
       <c r="C47" t="n">
-        <v>68.14</v>
+        <v>70</v>
       </c>
       <c r="D47" t="n">
-        <v>68.16</v>
+        <v>70</v>
       </c>
       <c r="E47" t="n">
-        <v>68.14</v>
+        <v>70</v>
       </c>
       <c r="F47" t="n">
-        <v>19836.664</v>
+        <v>154.6854</v>
       </c>
       <c r="G47" t="n">
-        <v>-459494.5057487373</v>
+        <v>-382063.2083773416</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,22 +2194,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68.15000000000001</v>
+        <v>70.45</v>
       </c>
       <c r="C48" t="n">
-        <v>68.12</v>
+        <v>70.45</v>
       </c>
       <c r="D48" t="n">
-        <v>68.15000000000001</v>
+        <v>70.45</v>
       </c>
       <c r="E48" t="n">
-        <v>68.12</v>
+        <v>70.45</v>
       </c>
       <c r="F48" t="n">
-        <v>107196.5678</v>
+        <v>25.9381</v>
       </c>
       <c r="G48" t="n">
-        <v>-566691.0735487373</v>
+        <v>-382037.2702773416</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,28 +2230,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>68.12</v>
+        <v>69.8</v>
       </c>
       <c r="C49" t="n">
-        <v>68.12</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>68.12</v>
+        <v>69.8</v>
       </c>
       <c r="E49" t="n">
-        <v>68.12</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>15082.4581</v>
+        <v>4999.9854</v>
       </c>
       <c r="G49" t="n">
-        <v>-566691.0735487373</v>
+        <v>-387037.2556773416</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2266,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>67.63</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>67.01000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>67.63</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>67.01000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>1730.81</v>
+        <v>5728.5127</v>
       </c>
       <c r="G50" t="n">
-        <v>-568421.8835487374</v>
+        <v>-392765.7683773416</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,35 +2302,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>68.48</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>68.48</v>
+        <v>69.45</v>
       </c>
       <c r="D51" t="n">
-        <v>68.48</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>68.48</v>
+        <v>69.45</v>
       </c>
       <c r="F51" t="n">
-        <v>22.1064</v>
+        <v>3512.5474</v>
       </c>
       <c r="G51" t="n">
-        <v>-568399.7771487373</v>
+        <v>-396278.3157773416</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>67.01000000000001</v>
-      </c>
-      <c r="K51" t="n">
-        <v>67.01000000000001</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2242,40 +2338,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68.48</v>
+        <v>69.8</v>
       </c>
       <c r="C52" t="n">
-        <v>68.48</v>
+        <v>69.8</v>
       </c>
       <c r="D52" t="n">
-        <v>68.48</v>
+        <v>69.8</v>
       </c>
       <c r="E52" t="n">
-        <v>68.48</v>
+        <v>69.8</v>
       </c>
       <c r="F52" t="n">
-        <v>8604.6826</v>
+        <v>2669.9834</v>
       </c>
       <c r="G52" t="n">
-        <v>-568399.7771487373</v>
+        <v>-393608.3323773416</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>68.48</v>
-      </c>
-      <c r="K52" t="n">
-        <v>67.01000000000001</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2286,22 +2374,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>69.05</v>
+        <v>69.8</v>
       </c>
       <c r="C53" t="n">
-        <v>69.05</v>
+        <v>69.7</v>
       </c>
       <c r="D53" t="n">
-        <v>69.05</v>
+        <v>69.8</v>
       </c>
       <c r="E53" t="n">
-        <v>69.05</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>1155</v>
+        <v>5552.3349</v>
       </c>
       <c r="G53" t="n">
-        <v>-567244.7771487373</v>
+        <v>-399160.6672773416</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,14 +2398,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>67.01000000000001</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2328,22 +2410,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>69.05</v>
+        <v>70.3</v>
       </c>
       <c r="C54" t="n">
-        <v>69.05</v>
+        <v>70.3</v>
       </c>
       <c r="D54" t="n">
-        <v>69.05</v>
+        <v>70.3</v>
       </c>
       <c r="E54" t="n">
-        <v>69.05</v>
+        <v>70.3</v>
       </c>
       <c r="F54" t="n">
-        <v>9665.5676</v>
+        <v>499.4046</v>
       </c>
       <c r="G54" t="n">
-        <v>-567244.7771487373</v>
+        <v>-398661.2626773416</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2364,22 +2446,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>69.05</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>69.05</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>69.05</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>69.05</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>326.4346</v>
+        <v>4372.8707</v>
       </c>
       <c r="G55" t="n">
-        <v>-567244.7771487373</v>
+        <v>-394288.3919773416</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2400,38 +2482,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>68.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="C56" t="n">
-        <v>69</v>
+        <v>70.3</v>
       </c>
       <c r="D56" t="n">
-        <v>69</v>
+        <v>70.3</v>
       </c>
       <c r="E56" t="n">
-        <v>68.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="F56" t="n">
-        <v>6963.6618</v>
+        <v>0.5954</v>
       </c>
       <c r="G56" t="n">
-        <v>-574208.4389487373</v>
+        <v>-394288.9873773415</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>69.05</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2442,38 +2518,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>69</v>
+        <v>70.3</v>
       </c>
       <c r="C57" t="n">
-        <v>69</v>
+        <v>70.75</v>
       </c>
       <c r="D57" t="n">
-        <v>69</v>
+        <v>70.75</v>
       </c>
       <c r="E57" t="n">
-        <v>69</v>
+        <v>70.3</v>
       </c>
       <c r="F57" t="n">
-        <v>30935.9516</v>
+        <v>4817.3193</v>
       </c>
       <c r="G57" t="n">
-        <v>-574208.4389487373</v>
+        <v>-389471.6680773416</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>69</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2484,22 +2554,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>68.20999999999999</v>
+        <v>70.75</v>
       </c>
       <c r="C58" t="n">
-        <v>68.20999999999999</v>
+        <v>70.75</v>
       </c>
       <c r="D58" t="n">
-        <v>68.20999999999999</v>
+        <v>70.75</v>
       </c>
       <c r="E58" t="n">
-        <v>68.20999999999999</v>
+        <v>70.75</v>
       </c>
       <c r="F58" t="n">
-        <v>7330.303</v>
+        <v>58.6258</v>
       </c>
       <c r="G58" t="n">
-        <v>-581538.7419487373</v>
+        <v>-389471.6680773416</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2509,11 +2579,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2524,22 +2590,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>68.11</v>
+        <v>70.75</v>
       </c>
       <c r="C59" t="n">
-        <v>67.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="D59" t="n">
-        <v>68.11</v>
+        <v>71</v>
       </c>
       <c r="E59" t="n">
-        <v>67.59999999999999</v>
+        <v>70.75</v>
       </c>
       <c r="F59" t="n">
-        <v>10993.9653</v>
+        <v>1259.064</v>
       </c>
       <c r="G59" t="n">
-        <v>-592532.7072487373</v>
+        <v>-388212.6040773416</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2549,11 +2615,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2564,38 +2626,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>67.75</v>
+        <v>71</v>
       </c>
       <c r="C60" t="n">
-        <v>67.75</v>
+        <v>71</v>
       </c>
       <c r="D60" t="n">
-        <v>67.75</v>
+        <v>71</v>
       </c>
       <c r="E60" t="n">
-        <v>67.75</v>
+        <v>71</v>
       </c>
       <c r="F60" t="n">
-        <v>213</v>
+        <v>4988.482</v>
       </c>
       <c r="G60" t="n">
-        <v>-592319.7072487373</v>
+        <v>-388212.6040773416</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>67.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2606,38 +2662,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>67.75</v>
+        <v>71</v>
       </c>
       <c r="C61" t="n">
-        <v>67.7</v>
+        <v>71.19</v>
       </c>
       <c r="D61" t="n">
-        <v>67.75</v>
+        <v>71.19</v>
       </c>
       <c r="E61" t="n">
-        <v>67.7</v>
+        <v>71</v>
       </c>
       <c r="F61" t="n">
-        <v>2138</v>
+        <v>3990.3626</v>
       </c>
       <c r="G61" t="n">
-        <v>-594457.7072487373</v>
+        <v>-384222.2414773416</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>67.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2648,36 +2698,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>67.7</v>
+        <v>71.3</v>
       </c>
       <c r="C62" t="n">
-        <v>67.7</v>
+        <v>71.3</v>
       </c>
       <c r="D62" t="n">
-        <v>67.7</v>
+        <v>71.3</v>
       </c>
       <c r="E62" t="n">
-        <v>67.7</v>
+        <v>71.3</v>
       </c>
       <c r="F62" t="n">
-        <v>2225</v>
+        <v>20</v>
       </c>
       <c r="G62" t="n">
-        <v>-594457.7072487373</v>
+        <v>-384202.2414773416</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2688,38 +2734,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67.62</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>67.62</v>
+        <v>71.3</v>
       </c>
       <c r="D63" t="n">
-        <v>67.62</v>
+        <v>71.3</v>
       </c>
       <c r="E63" t="n">
-        <v>67.62</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>167</v>
+        <v>1579.1651</v>
       </c>
       <c r="G63" t="n">
-        <v>-594624.7072487373</v>
+        <v>-384202.2414773416</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>67.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2730,38 +2770,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>68.69</v>
+        <v>71.19</v>
       </c>
       <c r="C64" t="n">
-        <v>68.69</v>
+        <v>71.19</v>
       </c>
       <c r="D64" t="n">
-        <v>68.69</v>
+        <v>71.19</v>
       </c>
       <c r="E64" t="n">
-        <v>68.69</v>
+        <v>71.19</v>
       </c>
       <c r="F64" t="n">
-        <v>4838.3147</v>
+        <v>668.2380000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-589786.3925487373</v>
+        <v>-384870.4794773416</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>67.62</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2772,38 +2806,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68.69</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>68.69</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>68.69</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>68.69</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>16.5292</v>
+        <v>703.2348804500704</v>
       </c>
       <c r="G65" t="n">
-        <v>-589786.3925487373</v>
+        <v>-385573.7143577916</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>68.69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +2842,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68.69</v>
+        <v>70.09</v>
       </c>
       <c r="C66" t="n">
-        <v>68.69</v>
+        <v>70.09</v>
       </c>
       <c r="D66" t="n">
-        <v>68.69</v>
+        <v>70.09</v>
       </c>
       <c r="E66" t="n">
-        <v>68.69</v>
+        <v>70.09</v>
       </c>
       <c r="F66" t="n">
-        <v>597.5251128257388</v>
+        <v>487.9632</v>
       </c>
       <c r="G66" t="n">
-        <v>-589786.3925487373</v>
+        <v>-386061.6775577916</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2839,11 +2867,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2854,22 +2878,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68.69</v>
+        <v>69.89</v>
       </c>
       <c r="C67" t="n">
-        <v>68.69</v>
+        <v>68.5</v>
       </c>
       <c r="D67" t="n">
-        <v>68.69</v>
+        <v>69.89</v>
       </c>
       <c r="E67" t="n">
-        <v>68.69</v>
+        <v>68.5</v>
       </c>
       <c r="F67" t="n">
-        <v>1177.3946</v>
+        <v>12505.3117</v>
       </c>
       <c r="G67" t="n">
-        <v>-589786.3925487373</v>
+        <v>-398566.9892577917</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2879,11 +2903,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2894,22 +2914,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>67.68000000000001</v>
+        <v>68.62</v>
       </c>
       <c r="C68" t="n">
-        <v>67.68000000000001</v>
+        <v>68.62</v>
       </c>
       <c r="D68" t="n">
-        <v>67.68000000000001</v>
+        <v>68.62</v>
       </c>
       <c r="E68" t="n">
-        <v>67.68000000000001</v>
+        <v>68.62</v>
       </c>
       <c r="F68" t="n">
-        <v>10.1769</v>
+        <v>2960.7907</v>
       </c>
       <c r="G68" t="n">
-        <v>-589796.5694487373</v>
+        <v>-395606.1985577916</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2919,11 +2939,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2934,22 +2950,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>67.69</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>67.65000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>67.69</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>67.65000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>4999.9997</v>
+        <v>720.4610951008646</v>
       </c>
       <c r="G69" t="n">
-        <v>-594796.5691487374</v>
+        <v>-394885.7374626908</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2959,11 +2975,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2974,22 +2986,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>67.62</v>
+        <v>68.62</v>
       </c>
       <c r="C70" t="n">
-        <v>67.62</v>
+        <v>68.12</v>
       </c>
       <c r="D70" t="n">
-        <v>67.62</v>
+        <v>68.62</v>
       </c>
       <c r="E70" t="n">
-        <v>67.62</v>
+        <v>68.12</v>
       </c>
       <c r="F70" t="n">
-        <v>184.4702</v>
+        <v>28491.085</v>
       </c>
       <c r="G70" t="n">
-        <v>-594981.0393487373</v>
+        <v>-423376.8224626908</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2999,11 +3011,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3014,22 +3022,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>67.65000000000001</v>
+        <v>68.69</v>
       </c>
       <c r="C71" t="n">
-        <v>67.65000000000001</v>
+        <v>68.69</v>
       </c>
       <c r="D71" t="n">
-        <v>67.65000000000001</v>
+        <v>68.69</v>
       </c>
       <c r="E71" t="n">
-        <v>67.65000000000001</v>
+        <v>68.69</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0003</v>
+        <v>29.3852</v>
       </c>
       <c r="G71" t="n">
-        <v>-594981.0390487374</v>
+        <v>-423347.4372626908</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3039,11 +3047,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3054,22 +3058,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>68.5</v>
+        <v>68.69</v>
       </c>
       <c r="C72" t="n">
-        <v>68.59999999999999</v>
+        <v>68.69</v>
       </c>
       <c r="D72" t="n">
-        <v>68.59999999999999</v>
+        <v>68.69</v>
       </c>
       <c r="E72" t="n">
-        <v>68.5</v>
+        <v>68.69</v>
       </c>
       <c r="F72" t="n">
-        <v>2917.027195335277</v>
+        <v>777</v>
       </c>
       <c r="G72" t="n">
-        <v>-592064.0118534021</v>
+        <v>-423347.4372626908</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3079,11 +3083,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3094,22 +3094,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>67.8</v>
+        <v>68.69</v>
       </c>
       <c r="C73" t="n">
-        <v>67.8</v>
+        <v>68.69</v>
       </c>
       <c r="D73" t="n">
-        <v>67.8</v>
+        <v>68.69</v>
       </c>
       <c r="E73" t="n">
-        <v>67.8</v>
+        <v>68.69</v>
       </c>
       <c r="F73" t="n">
-        <v>2129.3711</v>
+        <v>888</v>
       </c>
       <c r="G73" t="n">
-        <v>-594193.3829534021</v>
+        <v>-423347.4372626908</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3119,11 +3119,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3134,22 +3130,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67.8</v>
+        <v>68.69</v>
       </c>
       <c r="C74" t="n">
-        <v>67.8</v>
+        <v>68.69</v>
       </c>
       <c r="D74" t="n">
-        <v>67.8</v>
+        <v>68.69</v>
       </c>
       <c r="E74" t="n">
-        <v>67.8</v>
+        <v>68.69</v>
       </c>
       <c r="F74" t="n">
-        <v>12281.8793</v>
+        <v>5593.1818</v>
       </c>
       <c r="G74" t="n">
-        <v>-594193.3829534021</v>
+        <v>-423347.4372626908</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3159,11 +3155,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3174,38 +3166,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="C75" t="n">
-        <v>67.7</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="E75" t="n">
-        <v>67.7</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>359.6521</v>
+        <v>16310.40448604651</v>
       </c>
       <c r="G75" t="n">
-        <v>-594553.0350534021</v>
+        <v>-439657.8417487373</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>67.8</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3216,38 +3202,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>67.7</v>
+        <v>68.16</v>
       </c>
       <c r="C76" t="n">
-        <v>67.7</v>
+        <v>68.14</v>
       </c>
       <c r="D76" t="n">
-        <v>67.7</v>
+        <v>68.16</v>
       </c>
       <c r="E76" t="n">
-        <v>67.7</v>
+        <v>68.14</v>
       </c>
       <c r="F76" t="n">
-        <v>145.9769</v>
+        <v>19836.664</v>
       </c>
       <c r="G76" t="n">
-        <v>-594553.0350534021</v>
+        <v>-459494.5057487373</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>67.7</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3258,38 +3238,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>67.8</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>67.7</v>
+        <v>68.12</v>
       </c>
       <c r="D77" t="n">
-        <v>67.8</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>67.7</v>
+        <v>68.12</v>
       </c>
       <c r="F77" t="n">
-        <v>10536.0194</v>
+        <v>107196.5678</v>
       </c>
       <c r="G77" t="n">
-        <v>-594553.0350534021</v>
+        <v>-566691.0735487373</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>67.7</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3300,38 +3274,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>67.8</v>
+        <v>68.12</v>
       </c>
       <c r="C78" t="n">
-        <v>67.7</v>
+        <v>68.12</v>
       </c>
       <c r="D78" t="n">
-        <v>67.8</v>
+        <v>68.12</v>
       </c>
       <c r="E78" t="n">
-        <v>67.7</v>
+        <v>68.12</v>
       </c>
       <c r="F78" t="n">
-        <v>150.8649</v>
+        <v>15082.4581</v>
       </c>
       <c r="G78" t="n">
-        <v>-594553.0350534021</v>
+        <v>-566691.0735487373</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>67.7</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3342,38 +3310,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>67.8</v>
+        <v>67.63</v>
       </c>
       <c r="C79" t="n">
-        <v>67.8</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>67.8</v>
+        <v>67.63</v>
       </c>
       <c r="E79" t="n">
-        <v>67.8</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>13502.3024</v>
+        <v>1730.81</v>
       </c>
       <c r="G79" t="n">
-        <v>-581050.732653402</v>
+        <v>-568421.8835487374</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>67.7</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3384,22 +3346,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>67.8</v>
+        <v>68.48</v>
       </c>
       <c r="C80" t="n">
-        <v>67.8</v>
+        <v>68.48</v>
       </c>
       <c r="D80" t="n">
-        <v>67.8</v>
+        <v>68.48</v>
       </c>
       <c r="E80" t="n">
-        <v>67.8</v>
+        <v>68.48</v>
       </c>
       <c r="F80" t="n">
-        <v>674.0638</v>
+        <v>22.1064</v>
       </c>
       <c r="G80" t="n">
-        <v>-581050.732653402</v>
+        <v>-568399.7771487373</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3409,11 +3371,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3424,22 +3382,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>67.7</v>
+        <v>68.48</v>
       </c>
       <c r="C81" t="n">
-        <v>67.7</v>
+        <v>68.48</v>
       </c>
       <c r="D81" t="n">
-        <v>67.7</v>
+        <v>68.48</v>
       </c>
       <c r="E81" t="n">
-        <v>67.7</v>
+        <v>68.48</v>
       </c>
       <c r="F81" t="n">
-        <v>52.9538</v>
+        <v>8604.6826</v>
       </c>
       <c r="G81" t="n">
-        <v>-581103.686453402</v>
+        <v>-568399.7771487373</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3449,11 +3407,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3464,22 +3418,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>67.7</v>
+        <v>69.05</v>
       </c>
       <c r="C82" t="n">
-        <v>67.7</v>
+        <v>69.05</v>
       </c>
       <c r="D82" t="n">
-        <v>67.7</v>
+        <v>69.05</v>
       </c>
       <c r="E82" t="n">
-        <v>67.7</v>
+        <v>69.05</v>
       </c>
       <c r="F82" t="n">
-        <v>1675.4606</v>
+        <v>1155</v>
       </c>
       <c r="G82" t="n">
-        <v>-581103.686453402</v>
+        <v>-567244.7771487373</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3489,11 +3443,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3504,22 +3454,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>67.69</v>
+        <v>69.05</v>
       </c>
       <c r="C83" t="n">
-        <v>67.56999999999999</v>
+        <v>69.05</v>
       </c>
       <c r="D83" t="n">
-        <v>67.69</v>
+        <v>69.05</v>
       </c>
       <c r="E83" t="n">
-        <v>67.56999999999999</v>
+        <v>69.05</v>
       </c>
       <c r="F83" t="n">
-        <v>2405.69</v>
+        <v>9665.5676</v>
       </c>
       <c r="G83" t="n">
-        <v>-583509.376453402</v>
+        <v>-567244.7771487373</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3529,11 +3479,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3544,22 +3490,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>67.56999999999999</v>
+        <v>69.05</v>
       </c>
       <c r="C84" t="n">
-        <v>67.09999999999999</v>
+        <v>69.05</v>
       </c>
       <c r="D84" t="n">
-        <v>67.56999999999999</v>
+        <v>69.05</v>
       </c>
       <c r="E84" t="n">
-        <v>67.09999999999999</v>
+        <v>69.05</v>
       </c>
       <c r="F84" t="n">
-        <v>35467.185</v>
+        <v>326.4346</v>
       </c>
       <c r="G84" t="n">
-        <v>-618976.561453402</v>
+        <v>-567244.7771487373</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3569,11 +3515,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3584,22 +3526,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>67.48999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>67.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="D85" t="n">
-        <v>67.48999999999999</v>
+        <v>69</v>
       </c>
       <c r="E85" t="n">
-        <v>67.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>124.9128</v>
+        <v>6963.6618</v>
       </c>
       <c r="G85" t="n">
-        <v>-618976.561453402</v>
+        <v>-574208.4389487373</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3609,11 +3551,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3624,22 +3562,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>67.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="C86" t="n">
-        <v>67.05</v>
+        <v>69</v>
       </c>
       <c r="D86" t="n">
-        <v>67.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E86" t="n">
-        <v>67.05</v>
+        <v>69</v>
       </c>
       <c r="F86" t="n">
-        <v>22590.8077</v>
+        <v>30935.9516</v>
       </c>
       <c r="G86" t="n">
-        <v>-641567.369153402</v>
+        <v>-574208.4389487373</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3649,11 +3587,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3664,22 +3598,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>66.7</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>66.7</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>66.7</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>66.7</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>12187.5226</v>
+        <v>7330.303</v>
       </c>
       <c r="G87" t="n">
-        <v>-653754.8917534021</v>
+        <v>-581538.7419487373</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3689,11 +3623,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3704,34 +3634,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>67.59999999999999</v>
+        <v>68.11</v>
       </c>
       <c r="C88" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>67.59999999999999</v>
+        <v>68.11</v>
       </c>
       <c r="E88" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>25</v>
+        <v>10993.9653</v>
       </c>
       <c r="G88" t="n">
-        <v>-653729.8917534021</v>
+        <v>-592532.7072487373</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>68.20999999999999</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -3744,30 +3676,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="C89" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="D89" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="E89" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="F89" t="n">
+        <v>213</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-592319.7072487373</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="C89" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="D89" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E89" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>16665.4832</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-670395.3749534021</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3784,30 +3718,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>67.59999999999999</v>
+        <v>67.75</v>
       </c>
       <c r="C90" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D90" t="n">
-        <v>67.59999999999999</v>
+        <v>67.75</v>
       </c>
       <c r="E90" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F90" t="n">
-        <v>31</v>
+        <v>2138</v>
       </c>
       <c r="G90" t="n">
-        <v>-670364.3749534021</v>
+        <v>-594457.7072487373</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>67.75</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3824,22 +3760,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.7</v>
+        <v>67.7</v>
       </c>
       <c r="C91" t="n">
-        <v>66.7</v>
+        <v>67.7</v>
       </c>
       <c r="D91" t="n">
-        <v>66.7</v>
+        <v>67.7</v>
       </c>
       <c r="E91" t="n">
-        <v>66.7</v>
+        <v>67.7</v>
       </c>
       <c r="F91" t="n">
-        <v>184.4702</v>
+        <v>2225</v>
       </c>
       <c r="G91" t="n">
-        <v>-670548.8451534021</v>
+        <v>-594457.7072487373</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3848,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
@@ -3866,22 +3802,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>67.59999999999999</v>
+        <v>67.62</v>
       </c>
       <c r="C92" t="n">
-        <v>67.59999999999999</v>
+        <v>67.62</v>
       </c>
       <c r="D92" t="n">
-        <v>67.59999999999999</v>
+        <v>67.62</v>
       </c>
       <c r="E92" t="n">
-        <v>67.59999999999999</v>
+        <v>67.62</v>
       </c>
       <c r="F92" t="n">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="G92" t="n">
-        <v>-670540.8451534021</v>
+        <v>-594624.7072487373</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -3890,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>66.7</v>
+        <v>67.7</v>
       </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
@@ -3908,22 +3844,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>67.59999999999999</v>
+        <v>68.69</v>
       </c>
       <c r="C93" t="n">
-        <v>67.59999999999999</v>
+        <v>68.69</v>
       </c>
       <c r="D93" t="n">
-        <v>67.59999999999999</v>
+        <v>68.69</v>
       </c>
       <c r="E93" t="n">
-        <v>67.59999999999999</v>
+        <v>68.69</v>
       </c>
       <c r="F93" t="n">
-        <v>10919.2695</v>
+        <v>4838.3147</v>
       </c>
       <c r="G93" t="n">
-        <v>-670540.8451534021</v>
+        <v>-589786.3925487373</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3932,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>67.59999999999999</v>
+        <v>67.62</v>
       </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
@@ -3950,30 +3886,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>67.7</v>
+        <v>68.69</v>
       </c>
       <c r="C94" t="n">
-        <v>69.05</v>
+        <v>68.69</v>
       </c>
       <c r="D94" t="n">
-        <v>69.05</v>
+        <v>68.69</v>
       </c>
       <c r="E94" t="n">
-        <v>67.7</v>
+        <v>68.69</v>
       </c>
       <c r="F94" t="n">
-        <v>49727.9585</v>
+        <v>16.5292</v>
       </c>
       <c r="G94" t="n">
-        <v>-620812.8866534021</v>
+        <v>-589786.3925487373</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>68.69</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3990,22 +3928,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>67.59999999999999</v>
+        <v>68.69</v>
       </c>
       <c r="C95" t="n">
-        <v>67.59999999999999</v>
+        <v>68.69</v>
       </c>
       <c r="D95" t="n">
-        <v>67.59999999999999</v>
+        <v>68.69</v>
       </c>
       <c r="E95" t="n">
-        <v>67.59999999999999</v>
+        <v>68.69</v>
       </c>
       <c r="F95" t="n">
-        <v>10000</v>
+        <v>597.5251128257388</v>
       </c>
       <c r="G95" t="n">
-        <v>-630812.8866534021</v>
+        <v>-589786.3925487373</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4030,22 +3968,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>69.04000000000001</v>
+        <v>68.69</v>
       </c>
       <c r="C96" t="n">
-        <v>69.04000000000001</v>
+        <v>68.69</v>
       </c>
       <c r="D96" t="n">
-        <v>69.04000000000001</v>
+        <v>68.69</v>
       </c>
       <c r="E96" t="n">
-        <v>69.04000000000001</v>
+        <v>68.69</v>
       </c>
       <c r="F96" t="n">
-        <v>12839.5343</v>
+        <v>1177.3946</v>
       </c>
       <c r="G96" t="n">
-        <v>-617973.3523534022</v>
+        <v>-589786.3925487373</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4070,22 +4008,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>69.04000000000001</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>69.04000000000001</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>69.04000000000001</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>69.04000000000001</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>11158.2715</v>
+        <v>10.1769</v>
       </c>
       <c r="G97" t="n">
-        <v>-617973.3523534022</v>
+        <v>-589796.5694487373</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4110,30 +4048,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>69.03</v>
+        <v>67.69</v>
       </c>
       <c r="C98" t="n">
-        <v>69.03</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>69.03</v>
+        <v>67.69</v>
       </c>
       <c r="E98" t="n">
-        <v>69.03</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>24001.2966</v>
+        <v>4999.9997</v>
       </c>
       <c r="G98" t="n">
-        <v>-641974.6489534022</v>
+        <v>-594796.5691487374</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>67.68000000000001</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4150,30 +4090,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>69.02</v>
+        <v>67.62</v>
       </c>
       <c r="C99" t="n">
-        <v>69.02</v>
+        <v>67.62</v>
       </c>
       <c r="D99" t="n">
-        <v>69.02</v>
+        <v>67.62</v>
       </c>
       <c r="E99" t="n">
-        <v>69.02</v>
+        <v>67.62</v>
       </c>
       <c r="F99" t="n">
-        <v>25376.5132</v>
+        <v>184.4702</v>
       </c>
       <c r="G99" t="n">
-        <v>-667351.1621534022</v>
+        <v>-594981.0393487373</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>67.65000000000001</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4190,30 +4132,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>69.02</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>69.02</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>69.02</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>69.02</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>8030.4373</v>
+        <v>0.0003</v>
       </c>
       <c r="G100" t="n">
-        <v>-667351.1621534022</v>
+        <v>-594981.0390487374</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>67.62</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4230,30 +4174,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>69.02</v>
+        <v>68.5</v>
       </c>
       <c r="C101" t="n">
-        <v>69.02</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>69.02</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>69.02</v>
+        <v>68.5</v>
       </c>
       <c r="F101" t="n">
-        <v>2724.1095</v>
+        <v>2917.027195335277</v>
       </c>
       <c r="G101" t="n">
-        <v>-667351.1621534022</v>
+        <v>-592064.0118534021</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>67.65000000000001</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4270,30 +4216,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>68.98999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C102" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="D102" t="n">
-        <v>68.98999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E102" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F102" t="n">
-        <v>14145.1616</v>
+        <v>2129.3711</v>
       </c>
       <c r="G102" t="n">
-        <v>-681496.3237534022</v>
+        <v>-594193.3829534021</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>68.59999999999999</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4310,22 +4258,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C103" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="D103" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E103" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F103" t="n">
-        <v>558.1639</v>
+        <v>12281.8793</v>
       </c>
       <c r="G103" t="n">
-        <v>-681496.3237534022</v>
+        <v>-594193.3829534021</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
@@ -4334,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
@@ -4352,22 +4300,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="C104" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="D104" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="E104" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="F104" t="n">
-        <v>7473.766</v>
+        <v>359.6521</v>
       </c>
       <c r="G104" t="n">
-        <v>-688970.0897534022</v>
+        <v>-594553.0350534021</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4376,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
@@ -4394,22 +4342,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="C105" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="D105" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="E105" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="F105" t="n">
-        <v>654.1259</v>
+        <v>145.9769</v>
       </c>
       <c r="G105" t="n">
-        <v>-688970.0897534022</v>
+        <v>-594553.0350534021</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -4418,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
@@ -4436,22 +4384,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C106" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D106" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E106" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F106" t="n">
-        <v>9090.539500000001</v>
+        <v>10536.0194</v>
       </c>
       <c r="G106" t="n">
-        <v>-679879.5502534022</v>
+        <v>-594553.0350534021</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4460,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
@@ -4478,22 +4426,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67.81999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C107" t="n">
-        <v>66.70999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D107" t="n">
-        <v>67.81999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E107" t="n">
-        <v>66.70999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F107" t="n">
-        <v>700</v>
+        <v>150.8649</v>
       </c>
       <c r="G107" t="n">
-        <v>-680579.5502534022</v>
+        <v>-594553.0350534021</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4502,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
@@ -4520,22 +4468,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>68.28</v>
+        <v>67.8</v>
       </c>
       <c r="C108" t="n">
-        <v>68.28</v>
+        <v>67.8</v>
       </c>
       <c r="D108" t="n">
-        <v>68.28</v>
+        <v>67.8</v>
       </c>
       <c r="E108" t="n">
-        <v>68.28</v>
+        <v>67.8</v>
       </c>
       <c r="F108" t="n">
-        <v>24.9537</v>
+        <v>13502.3024</v>
       </c>
       <c r="G108" t="n">
-        <v>-680554.5965534023</v>
+        <v>-581050.732653402</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -4544,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>66.70999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
@@ -4562,22 +4510,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>67.93000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C109" t="n">
-        <v>67.94</v>
+        <v>67.8</v>
       </c>
       <c r="D109" t="n">
-        <v>67.94</v>
+        <v>67.8</v>
       </c>
       <c r="E109" t="n">
-        <v>67.93000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F109" t="n">
-        <v>1255.3067</v>
+        <v>674.0638</v>
       </c>
       <c r="G109" t="n">
-        <v>-681809.9032534022</v>
+        <v>-581050.732653402</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4602,32 +4550,30 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="C110" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="D110" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="E110" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="F110" t="n">
-        <v>302.1608</v>
+        <v>52.9538</v>
       </c>
       <c r="G110" t="n">
-        <v>-682112.0640534022</v>
+        <v>-581103.686453402</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>67.94</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4644,32 +4590,30 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>66.70999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C111" t="n">
-        <v>66.3</v>
+        <v>67.7</v>
       </c>
       <c r="D111" t="n">
-        <v>66.70999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="E111" t="n">
-        <v>66.3</v>
+        <v>67.7</v>
       </c>
       <c r="F111" t="n">
-        <v>953.1459</v>
+        <v>1675.4606</v>
       </c>
       <c r="G111" t="n">
-        <v>-683065.2099534022</v>
+        <v>-581103.686453402</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>66.8</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4680,6 +4624,1168 @@
         <v>1</v>
       </c>
       <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="C112" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="D112" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="E112" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2405.69</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-583509.376453402</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D113" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="E113" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F113" t="n">
+        <v>35467.185</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-618976.561453402</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D114" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>124.9128</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-618976.561453402</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="D115" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="F115" t="n">
+        <v>22590.8077</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-641567.369153402</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12187.5226</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-653754.8917534021</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D117" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F117" t="n">
+        <v>25</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-653729.8917534021</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E118" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>16665.4832</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-670395.3749534021</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D119" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E119" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F119" t="n">
+        <v>31</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-670364.3749534021</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>184.4702</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-670548.8451534021</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-670540.8451534021</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10919.2695</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-670540.8451534021</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C123" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="D123" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="E123" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>49727.9585</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-620812.8866534021</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D124" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E124" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-630812.8866534021</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12839.5343</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-617973.3523534022</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11158.2715</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-617973.3523534022</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>69.03</v>
+      </c>
+      <c r="C127" t="n">
+        <v>69.03</v>
+      </c>
+      <c r="D127" t="n">
+        <v>69.03</v>
+      </c>
+      <c r="E127" t="n">
+        <v>69.03</v>
+      </c>
+      <c r="F127" t="n">
+        <v>24001.2966</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-641974.6489534022</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="C128" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="D128" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="E128" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="F128" t="n">
+        <v>25376.5132</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-667351.1621534022</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="C129" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="D129" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="E129" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8030.4373</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-667351.1621534022</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="C130" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="D130" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="E130" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2724.1095</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-667351.1621534022</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>14145.1616</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-681496.3237534022</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D132" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E132" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>558.1639</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-681496.3237534022</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>68</v>
+      </c>
+      <c r="C133" t="n">
+        <v>68</v>
+      </c>
+      <c r="D133" t="n">
+        <v>68</v>
+      </c>
+      <c r="E133" t="n">
+        <v>68</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7473.766</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-688970.0897534022</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>68</v>
+      </c>
+      <c r="C134" t="n">
+        <v>68</v>
+      </c>
+      <c r="D134" t="n">
+        <v>68</v>
+      </c>
+      <c r="E134" t="n">
+        <v>68</v>
+      </c>
+      <c r="F134" t="n">
+        <v>654.1259</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-688970.0897534022</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9090.539500000001</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-679879.5502534022</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>67.81999999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="D136" t="n">
+        <v>67.81999999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>700</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-680579.5502534022</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="C137" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="D137" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="E137" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="F137" t="n">
+        <v>24.9537</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-680554.5965534023</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="C138" t="n">
+        <v>67.94</v>
+      </c>
+      <c r="D138" t="n">
+        <v>67.94</v>
+      </c>
+      <c r="E138" t="n">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1255.3067</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-681809.9032534022</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>302.1608</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-682112.0640534022</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D140" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>953.1459</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-683065.2099534022</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest WOM.xlsx
+++ b/BackTest/2020-01-21 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-327980.8958654488</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-328448.6404654488</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.31</v>
       </c>
       <c r="J3" t="n">
         <v>67.31</v>
       </c>
-      <c r="K3" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,24 +521,23 @@
         <v>-354364.9034654488</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>67.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,26 +562,23 @@
         <v>-354364.9034654488</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>67.20999999999999</v>
-      </c>
-      <c r="K5" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>67.31</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,26 +603,23 @@
         <v>-243806.3919654488</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>67.20999999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>67.31</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -662,24 +644,23 @@
         <v>-243806.3919654488</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>68.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,22 +687,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +726,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,22 +765,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,22 +804,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,22 +843,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,22 +882,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,22 +921,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1000,22 +960,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1042,22 +999,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1084,22 +1038,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1126,24 +1077,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1.071957361461893</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.000148588410104</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1170,16 +1116,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,16 +1155,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1242,16 +1194,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1278,16 +1233,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1314,16 +1272,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1350,16 +1311,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1386,16 +1350,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1422,16 +1389,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1458,16 +1428,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1494,16 +1467,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1530,16 +1506,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1566,16 +1545,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1602,16 +1584,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1638,16 +1623,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1674,16 +1662,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1710,16 +1701,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1746,16 +1740,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1782,16 +1779,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1818,16 +1818,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1854,16 +1857,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1890,16 +1896,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1926,16 +1935,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1962,16 +1974,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1998,16 +2013,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2034,16 +2052,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2070,16 +2091,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2106,16 +2130,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2142,16 +2169,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2178,16 +2208,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2214,16 +2247,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2250,16 +2286,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2286,16 +2325,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2322,16 +2364,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2358,16 +2403,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2394,16 +2442,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2430,16 +2481,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2466,16 +2520,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2502,16 +2559,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2538,16 +2598,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2574,16 +2637,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2610,16 +2676,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2646,16 +2715,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2682,16 +2754,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2716,18 +2791,23 @@
         <v>-384202.2414773416</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.054277967612539</v>
+      </c>
       <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>1.000148588410104</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2754,16 +2834,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2788,18 +2865,15 @@
         <v>-384870.4794773416</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2824,18 +2898,15 @@
         <v>-385573.7143577916</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2860,18 +2931,15 @@
         <v>-386061.6775577916</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2896,18 +2964,15 @@
         <v>-398566.9892577917</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2934,16 +2999,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2970,16 +3032,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3006,16 +3065,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3042,16 +3098,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3078,16 +3131,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3114,16 +3164,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3150,16 +3197,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3186,16 +3230,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3222,16 +3263,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3258,16 +3296,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3294,16 +3329,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3330,16 +3362,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3364,18 +3393,15 @@
         <v>-568399.7771487373</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3402,16 +3428,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3438,16 +3461,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3474,16 +3494,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3508,18 +3525,15 @@
         <v>-567244.7771487373</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3546,16 +3560,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3582,16 +3593,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3618,16 +3626,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3652,24 +3657,15 @@
         <v>-592532.7072487373</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>68.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3694,24 +3690,15 @@
         <v>-592319.7072487373</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>67.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3736,24 +3723,15 @@
         <v>-594457.7072487373</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>67.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3778,24 +3756,15 @@
         <v>-594457.7072487373</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>67.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3822,22 +3791,13 @@
       <c r="H92" t="n">
         <v>1</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>67.7</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3864,22 +3824,13 @@
       <c r="H93" t="n">
         <v>1</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>67.62</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3906,22 +3857,13 @@
       <c r="H94" t="n">
         <v>1</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>68.69</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3946,22 +3888,15 @@
         <v>-589786.3925487373</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3986,22 +3921,15 @@
         <v>-589786.3925487373</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4026,22 +3954,15 @@
         <v>-589796.5694487373</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4068,22 +3989,13 @@
       <c r="H98" t="n">
         <v>1</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>67.68000000000001</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4108,24 +4020,15 @@
         <v>-594981.0393487373</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>67.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4152,22 +4055,13 @@
       <c r="H100" t="n">
         <v>1</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>67.62</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4192,24 +4086,15 @@
         <v>-592064.0118534021</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>67.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4234,24 +4119,15 @@
         <v>-594193.3829534021</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>68.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4276,24 +4152,15 @@
         <v>-594193.3829534021</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>67.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4320,22 +4187,13 @@
       <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>67.8</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4362,22 +4220,13 @@
       <c r="H105" t="n">
         <v>1</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>67.7</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4404,22 +4253,13 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>67.7</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4444,24 +4284,15 @@
         <v>-594553.0350534021</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>67.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4488,22 +4319,13 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>67.7</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4528,22 +4350,15 @@
         <v>-581050.732653402</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4568,22 +4383,15 @@
         <v>-581103.686453402</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4608,22 +4416,15 @@
         <v>-581103.686453402</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4648,22 +4449,15 @@
         <v>-583509.376453402</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4688,22 +4482,15 @@
         <v>-618976.561453402</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4728,22 +4515,15 @@
         <v>-618976.561453402</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4768,22 +4548,15 @@
         <v>-641567.369153402</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4810,20 +4583,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4850,20 +4616,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4890,20 +4649,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4930,20 +4682,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4970,20 +4715,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5010,20 +4748,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5050,20 +4781,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5090,20 +4814,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5130,20 +4847,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5170,20 +4880,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5210,20 +4913,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5250,20 +4946,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5290,20 +4979,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5330,20 +5012,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5370,20 +5045,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5410,20 +5078,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5450,20 +5111,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5490,20 +5144,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5530,20 +5177,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5570,20 +5210,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5610,20 +5243,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5650,20 +5276,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5690,20 +5309,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5730,20 +5342,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5768,26 +5373,23 @@
         <v>-683065.2099534022</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
         <v>66.8</v>
       </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest WOM.xlsx
+++ b/BackTest/2020-01-21 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-327980.8958654488</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-328448.6404654488</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-354364.9034654488</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-354364.9034654488</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>67.20999999999999</v>
-      </c>
-      <c r="J5" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,15 @@
         <v>-243806.3919654488</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>67.20999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>67.20999999999999</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,17 +620,15 @@
         <v>-243806.3919654488</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>68.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>67.31</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -689,11 +663,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>67.31</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -727,14 +701,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -766,14 +734,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -805,14 +767,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -844,14 +800,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -883,14 +833,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -922,14 +866,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -961,14 +899,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1000,14 +932,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1039,14 +965,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1078,14 +998,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1117,14 +1031,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1156,14 +1064,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1195,14 +1097,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1234,14 +1130,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1273,14 +1163,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1312,14 +1196,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1351,14 +1229,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1390,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1429,14 +1295,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1468,14 +1328,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1507,14 +1361,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1543,17 +1391,11 @@
         <v>-347677.3144919323</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1585,14 +1427,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1624,14 +1460,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1663,14 +1493,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1702,14 +1526,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1741,14 +1559,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1780,14 +1592,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1819,14 +1625,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1855,17 +1655,11 @@
         <v>-366039.4476937117</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1897,14 +1691,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1936,14 +1724,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1975,14 +1757,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2014,14 +1790,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2050,17 +1820,11 @@
         <v>-379505.1710773416</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2092,14 +1856,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2131,14 +1889,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2170,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2209,14 +1955,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2248,14 +1988,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2287,14 +2021,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2326,14 +2054,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2365,14 +2087,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2404,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2443,14 +2153,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2482,14 +2186,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2518,17 +2216,11 @@
         <v>-394288.3919773416</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2557,17 +2249,11 @@
         <v>-394288.9873773415</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2596,17 +2282,11 @@
         <v>-389471.6680773416</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2635,17 +2315,11 @@
         <v>-389471.6680773416</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2674,17 +2348,11 @@
         <v>-388212.6040773416</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2713,17 +2381,11 @@
         <v>-388212.6040773416</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2752,17 +2414,11 @@
         <v>-384222.2414773416</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2791,23 +2447,15 @@
         <v>-384202.2414773416</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1.054277967612539</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.000148588410104</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2832,7 +2480,7 @@
         <v>-384202.2414773416</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2865,7 +2513,7 @@
         <v>-384870.4794773416</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2898,7 +2546,7 @@
         <v>-385573.7143577916</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2931,7 +2579,7 @@
         <v>-386061.6775577916</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2964,7 +2612,7 @@
         <v>-398566.9892577917</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2997,7 +2645,7 @@
         <v>-395606.1985577916</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3030,7 +2678,7 @@
         <v>-394885.7374626908</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3063,7 +2711,7 @@
         <v>-423376.8224626908</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3393,7 +3041,7 @@
         <v>-568399.7771487373</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3525,7 +3173,7 @@
         <v>-567244.7771487373</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3789,7 +3437,7 @@
         <v>-594624.7072487373</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3822,7 +3470,7 @@
         <v>-589786.3925487373</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3855,7 +3503,7 @@
         <v>-589786.3925487373</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3888,7 +3536,7 @@
         <v>-589786.3925487373</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3921,7 +3569,7 @@
         <v>-589786.3925487373</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3954,7 +3602,7 @@
         <v>-589796.5694487373</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3987,7 +3635,7 @@
         <v>-594796.5691487374</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4053,7 +3701,7 @@
         <v>-594981.0390487374</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4185,7 +3833,7 @@
         <v>-594553.0350534021</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4218,7 +3866,7 @@
         <v>-594553.0350534021</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4251,7 +3899,7 @@
         <v>-594553.0350534021</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4317,7 +3965,7 @@
         <v>-581050.732653402</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4350,7 +3998,7 @@
         <v>-581050.732653402</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4383,7 +4031,7 @@
         <v>-581103.686453402</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4416,7 +4064,7 @@
         <v>-581103.686453402</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4449,7 +4097,7 @@
         <v>-583509.376453402</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4482,7 +4130,7 @@
         <v>-618976.561453402</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4515,7 +4163,7 @@
         <v>-618976.561453402</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4548,7 +4196,7 @@
         <v>-641567.369153402</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4746,10 +4394,14 @@
         <v>-670540.8451534021</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="J121" t="n">
+        <v>66.7</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
@@ -4779,11 +4431,19 @@
         <v>-670540.8451534021</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="J122" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4812,11 +4472,19 @@
         <v>-620812.8866534021</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="J123" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4845,10 +4513,14 @@
         <v>-630812.8866534021</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="J124" t="n">
+        <v>69.05</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4881,8 +4553,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4914,8 +4592,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5109,10 +4793,14 @@
         <v>-681496.3237534022</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="J132" t="n">
+        <v>68.09999999999999</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -5142,11 +4830,19 @@
         <v>-688970.0897534022</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="J133" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5175,11 +4871,19 @@
         <v>-688970.0897534022</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>68</v>
+      </c>
+      <c r="J134" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5208,10 +4912,14 @@
         <v>-679879.5502534022</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>68</v>
+      </c>
+      <c r="J135" t="n">
+        <v>68</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -5241,11 +4949,19 @@
         <v>-680579.5502534022</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="J136" t="n">
+        <v>68</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5274,11 +4990,19 @@
         <v>-680554.5965534023</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="J137" t="n">
+        <v>68</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5307,11 +5031,19 @@
         <v>-681809.9032534022</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="J138" t="n">
+        <v>68</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5340,11 +5072,19 @@
         <v>-682112.0640534022</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>67.94</v>
+      </c>
+      <c r="J139" t="n">
+        <v>68</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5373,15 +5113,17 @@
         <v>-683065.2099534022</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>66.8</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>68</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -5390,6 +5132,6 @@
       <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest WOM.xlsx
+++ b/BackTest/2020-01-21 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,14 +583,10 @@
         <v>-243806.3919654488</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67.20999999999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>67.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -623,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>67.20999999999999</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -662,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>67.20999999999999</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -797,7 +781,7 @@
         <v>-231271.1098988568</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -830,7 +814,7 @@
         <v>-213271.1098988568</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -863,7 +847,7 @@
         <v>-180982.6799988568</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1325,7 +1309,7 @@
         <v>-342393.2487919323</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1589,7 +1573,7 @@
         <v>-369355.2029937117</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1688,7 +1672,7 @@
         <v>-364227.6042773416</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1721,7 +1705,7 @@
         <v>-364227.6042773416</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1754,7 +1738,7 @@
         <v>-362442.5003773416</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1787,7 +1771,7 @@
         <v>-362442.5003773416</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1853,7 +1837,7 @@
         <v>-381505.1710773416</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1886,7 +1870,7 @@
         <v>-381468.2083773416</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1919,7 +1903,7 @@
         <v>-382063.2083773416</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2216,7 +2200,7 @@
         <v>-394288.3919773416</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2249,7 +2233,7 @@
         <v>-394288.9873773415</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2282,7 +2266,7 @@
         <v>-389471.6680773416</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2315,7 +2299,7 @@
         <v>-389471.6680773416</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2348,7 +2332,7 @@
         <v>-388212.6040773416</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2381,7 +2365,7 @@
         <v>-388212.6040773416</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2414,7 +2398,7 @@
         <v>-384222.2414773416</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2447,7 +2431,7 @@
         <v>-384202.2414773416</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2480,7 +2464,7 @@
         <v>-384202.2414773416</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2513,7 +2497,7 @@
         <v>-384870.4794773416</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2546,7 +2530,7 @@
         <v>-385573.7143577916</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2579,7 +2563,7 @@
         <v>-386061.6775577916</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2612,7 +2596,7 @@
         <v>-398566.9892577917</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2645,7 +2629,7 @@
         <v>-395606.1985577916</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2678,7 +2662,7 @@
         <v>-394885.7374626908</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2711,7 +2695,7 @@
         <v>-423376.8224626908</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -4097,11 +4081,17 @@
         <v>-583509.376453402</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>67.7</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4130,11 +4120,17 @@
         <v>-618976.561453402</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4163,11 +4159,17 @@
         <v>-618976.561453402</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>67.09999999999999</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4200,7 +4202,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4229,11 +4235,17 @@
         <v>-653754.8917534021</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>67.05</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4262,11 +4274,17 @@
         <v>-653729.8917534021</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>66.7</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4295,11 +4313,17 @@
         <v>-670395.3749534021</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>67.59999999999999</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4328,11 +4352,17 @@
         <v>-670364.3749534021</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>66.7</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4361,11 +4391,17 @@
         <v>-670548.8451534021</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>67.59999999999999</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4399,10 +4435,12 @@
       <c r="I121" t="n">
         <v>66.7</v>
       </c>
-      <c r="J121" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4436,12 +4474,10 @@
       <c r="I122" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="J122" t="n">
-        <v>66.7</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4472,17 +4508,13 @@
         <v>-620812.8866534021</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J123" t="n">
-        <v>66.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -4513,15 +4545,15 @@
         <v>-630812.8866534021</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>69.05</v>
-      </c>
-      <c r="J124" t="n">
-        <v>69.05</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4553,12 +4585,10 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>69.05</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -4592,12 +4622,10 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>69.05</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -4632,7 +4660,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4665,7 +4697,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4698,7 +4734,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4731,7 +4771,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4764,7 +4808,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4793,15 +4841,15 @@
         <v>-681496.3237534022</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="J132" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4830,17 +4878,13 @@
         <v>-688970.0897534022</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="J133" t="n">
-        <v>68.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -4876,12 +4920,10 @@
       <c r="I134" t="n">
         <v>68</v>
       </c>
-      <c r="J134" t="n">
-        <v>68.09999999999999</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -4917,10 +4959,12 @@
       <c r="I135" t="n">
         <v>68</v>
       </c>
-      <c r="J135" t="n">
-        <v>68</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4954,12 +4998,10 @@
       <c r="I136" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="J136" t="n">
-        <v>68</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4995,9 +5037,7 @@
       <c r="I137" t="n">
         <v>66.70999999999999</v>
       </c>
-      <c r="J137" t="n">
-        <v>68</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5036,9 +5076,7 @@
       <c r="I138" t="n">
         <v>68.28</v>
       </c>
-      <c r="J138" t="n">
-        <v>68</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,14 +5110,10 @@
         <v>-682112.0640534022</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>67.94</v>
-      </c>
-      <c r="J139" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5118,9 +5152,7 @@
       <c r="I140" t="n">
         <v>66.8</v>
       </c>
-      <c r="J140" t="n">
-        <v>68</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5132,6 +5164,6 @@
       <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest WOM.xlsx
+++ b/BackTest/2020-01-21 BackTest WOM.xlsx
@@ -781,7 +781,7 @@
         <v>-231271.1098988568</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-213271.1098988568</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-180982.6799988568</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-342393.2487919323</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-347677.3144919323</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-369355.2029937117</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-366039.4476937117</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-364227.6042773416</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-364227.6042773416</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-362442.5003773416</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-362442.5003773416</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-379505.1710773416</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-381505.1710773416</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-381468.2083773416</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-382063.2083773416</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-388212.6040773416</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-384222.2414773416</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-384202.2414773416</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-384202.2414773416</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-384870.4794773416</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-385573.7143577916</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-386061.6775577916</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-398566.9892577917</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-395606.1985577916</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4081,929 +4081,867 @@
         <v>-583509.376453402</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D113" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="E113" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F113" t="n">
+        <v>35467.185</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-618976.561453402</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D114" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>124.9128</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-618976.561453402</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="D115" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="F115" t="n">
+        <v>22590.8077</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-641567.369153402</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12187.5226</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-653754.8917534021</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D117" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F117" t="n">
+        <v>25</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-653729.8917534021</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E118" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>16665.4832</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-670395.3749534021</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D119" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E119" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F119" t="n">
+        <v>31</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-670364.3749534021</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>184.4702</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-670548.8451534021</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-670540.8451534021</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10919.2695</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-670540.8451534021</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="J122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
         <v>67.7</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
+      <c r="C123" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="D123" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="E123" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>49727.9585</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-620812.8866534021</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D124" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E124" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-630812.8866534021</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12839.5343</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-617973.3523534022</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="J125" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11158.2715</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-617973.3523534022</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>69.03</v>
+      </c>
+      <c r="C127" t="n">
+        <v>69.03</v>
+      </c>
+      <c r="D127" t="n">
+        <v>69.03</v>
+      </c>
+      <c r="E127" t="n">
+        <v>69.03</v>
+      </c>
+      <c r="F127" t="n">
+        <v>24001.2966</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-641974.6489534022</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="C128" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="D128" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="E128" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="F128" t="n">
+        <v>25376.5132</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-667351.1621534022</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="C129" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="D129" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="E129" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8030.4373</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-667351.1621534022</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="C130" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="D130" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="E130" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2724.1095</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-667351.1621534022</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>14145.1616</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-681496.3237534022</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D132" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E132" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>558.1639</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-681496.3237534022</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="J132" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>68</v>
+      </c>
+      <c r="C133" t="n">
+        <v>68</v>
+      </c>
+      <c r="D133" t="n">
+        <v>68</v>
+      </c>
+      <c r="E133" t="n">
+        <v>68</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7473.766</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-688970.0897534022</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="J133" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>68</v>
+      </c>
+      <c r="C134" t="n">
+        <v>68</v>
+      </c>
+      <c r="D134" t="n">
+        <v>68</v>
+      </c>
+      <c r="E134" t="n">
+        <v>68</v>
+      </c>
+      <c r="F134" t="n">
+        <v>654.1259</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-688970.0897534022</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>68</v>
+      </c>
+      <c r="J134" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9090.539500000001</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-679879.5502534022</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>68</v>
+      </c>
+      <c r="J135" t="n">
+        <v>68</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>67.81999999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="D136" t="n">
+        <v>67.81999999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>700</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-680579.5502534022</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="J136" t="n">
+        <v>68</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="C113" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="D113" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="E113" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="F113" t="n">
-        <v>35467.185</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-618976.561453402</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="C114" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="D114" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="E114" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="F114" t="n">
-        <v>124.9128</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-618976.561453402</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="C115" t="n">
-        <v>67.05</v>
-      </c>
-      <c r="D115" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="E115" t="n">
-        <v>67.05</v>
-      </c>
-      <c r="F115" t="n">
-        <v>22590.8077</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-641567.369153402</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C116" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="D116" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E116" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F116" t="n">
-        <v>12187.5226</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-653754.8917534021</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>67.05</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C117" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D117" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E117" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F117" t="n">
-        <v>25</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-653729.8917534021</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C118" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="D118" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E118" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>16665.4832</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-670395.3749534021</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C119" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D119" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E119" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F119" t="n">
-        <v>31</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-670364.3749534021</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C120" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="D120" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E120" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F120" t="n">
-        <v>184.4702</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-670548.8451534021</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C121" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D121" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E121" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F121" t="n">
-        <v>8</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-670540.8451534021</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C122" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D122" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E122" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F122" t="n">
-        <v>10919.2695</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-670540.8451534021</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="C123" t="n">
-        <v>69.05</v>
-      </c>
-      <c r="D123" t="n">
-        <v>69.05</v>
-      </c>
-      <c r="E123" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F123" t="n">
-        <v>49727.9585</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-620812.8866534021</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C124" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D124" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E124" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F124" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-630812.8866534021</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="C125" t="n">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="D125" t="n">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="E125" t="n">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="F125" t="n">
-        <v>12839.5343</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-617973.3523534022</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="C126" t="n">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="D126" t="n">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="E126" t="n">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="F126" t="n">
-        <v>11158.2715</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-617973.3523534022</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>69.03</v>
-      </c>
-      <c r="C127" t="n">
-        <v>69.03</v>
-      </c>
-      <c r="D127" t="n">
-        <v>69.03</v>
-      </c>
-      <c r="E127" t="n">
-        <v>69.03</v>
-      </c>
-      <c r="F127" t="n">
-        <v>24001.2966</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-641974.6489534022</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="C128" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="D128" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="E128" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="F128" t="n">
-        <v>25376.5132</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-667351.1621534022</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="C129" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="D129" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="E129" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="F129" t="n">
-        <v>8030.4373</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-667351.1621534022</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="C130" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="D130" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="E130" t="n">
-        <v>69.02</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2724.1095</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-667351.1621534022</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>68.98999999999999</v>
-      </c>
-      <c r="C131" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D131" t="n">
-        <v>68.98999999999999</v>
-      </c>
-      <c r="E131" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>14145.1616</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-681496.3237534022</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C132" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D132" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E132" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F132" t="n">
-        <v>558.1639</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-681496.3237534022</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>68</v>
-      </c>
-      <c r="C133" t="n">
-        <v>68</v>
-      </c>
-      <c r="D133" t="n">
-        <v>68</v>
-      </c>
-      <c r="E133" t="n">
-        <v>68</v>
-      </c>
-      <c r="F133" t="n">
-        <v>7473.766</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-688970.0897534022</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>68</v>
-      </c>
-      <c r="C134" t="n">
-        <v>68</v>
-      </c>
-      <c r="D134" t="n">
-        <v>68</v>
-      </c>
-      <c r="E134" t="n">
-        <v>68</v>
-      </c>
-      <c r="F134" t="n">
-        <v>654.1259</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-688970.0897534022</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>68</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C135" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D135" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E135" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F135" t="n">
-        <v>9090.539500000001</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-679879.5502534022</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>68</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>67.81999999999999</v>
-      </c>
-      <c r="C136" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="D136" t="n">
-        <v>67.81999999999999</v>
-      </c>
-      <c r="E136" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="F136" t="n">
-        <v>700</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-680579.5502534022</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5037,7 +4975,9 @@
       <c r="I137" t="n">
         <v>66.70999999999999</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>68</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5076,7 +5016,9 @@
       <c r="I138" t="n">
         <v>68.28</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>68</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5110,10 +5052,14 @@
         <v>-682112.0640534022</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>67.94</v>
+      </c>
+      <c r="J139" t="n">
+        <v>68</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,7 +5098,9 @@
       <c r="I140" t="n">
         <v>66.8</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>68</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-21 BackTest WOM.xlsx
+++ b/BackTest/2020-01-21 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>122.1492</v>
       </c>
       <c r="G2" t="n">
-        <v>-327980.8958654488</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>467.7446</v>
       </c>
       <c r="G3" t="n">
-        <v>-328448.6404654488</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,21 @@
         <v>25916.263</v>
       </c>
       <c r="G4" t="n">
-        <v>-354364.9034654488</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>67.3</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +539,21 @@
         <v>10165.1714</v>
       </c>
       <c r="G5" t="n">
-        <v>-354364.9034654488</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +575,21 @@
         <v>110558.5115</v>
       </c>
       <c r="G6" t="n">
-        <v>-243806.3919654488</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +611,19 @@
         <v>9790.427100000001</v>
       </c>
       <c r="G7" t="n">
-        <v>-243806.3919654488</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +645,19 @@
         <v>83039.39720000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-326845.7891654487</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +679,19 @@
         <v>3174.3039</v>
       </c>
       <c r="G9" t="n">
-        <v>-323671.4852654487</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +713,19 @@
         <v>35182.0122</v>
       </c>
       <c r="G10" t="n">
-        <v>-288489.4730654488</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +747,19 @@
         <v>9999</v>
       </c>
       <c r="G11" t="n">
-        <v>-278490.4730654488</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +781,19 @@
         <v>47219.36316659199</v>
       </c>
       <c r="G12" t="n">
-        <v>-231271.1098988568</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +815,19 @@
         <v>18000</v>
       </c>
       <c r="G13" t="n">
-        <v>-213271.1098988568</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +849,19 @@
         <v>32288.4299</v>
       </c>
       <c r="G14" t="n">
-        <v>-180982.6799988568</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +883,19 @@
         <v>30107.5983</v>
       </c>
       <c r="G15" t="n">
-        <v>-211090.2782988568</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +917,19 @@
         <v>3096.8429</v>
       </c>
       <c r="G16" t="n">
-        <v>-214187.1211988568</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +951,19 @@
         <v>5720</v>
       </c>
       <c r="G17" t="n">
-        <v>-208467.1211988568</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +985,19 @@
         <v>100626.2001355714</v>
       </c>
       <c r="G18" t="n">
-        <v>-309093.3213344282</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1019,19 @@
         <v>182.1394</v>
       </c>
       <c r="G19" t="n">
-        <v>-309275.4607344281</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1053,19 @@
         <v>92</v>
       </c>
       <c r="G20" t="n">
-        <v>-309183.4607344281</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1087,17 @@
         <v>13343.604</v>
       </c>
       <c r="G21" t="n">
-        <v>-322527.0647344281</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1119,15 @@
         <v>25226.2446</v>
       </c>
       <c r="G22" t="n">
-        <v>-322527.0647344281</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1149,15 @@
         <v>36898.5251</v>
       </c>
       <c r="G23" t="n">
-        <v>-285628.5396344281</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1179,15 @@
         <v>63649.1065</v>
       </c>
       <c r="G24" t="n">
-        <v>-349277.6461344281</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1209,15 @@
         <v>10122.74315995687</v>
       </c>
       <c r="G25" t="n">
-        <v>-359400.389294385</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1239,15 @@
         <v>2931.8429</v>
       </c>
       <c r="G26" t="n">
-        <v>-356468.546394385</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1269,15 @@
         <v>10485.6822178373</v>
       </c>
       <c r="G27" t="n">
-        <v>-345982.8641765477</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1299,15 @@
         <v>3589.615384615385</v>
       </c>
       <c r="G28" t="n">
-        <v>-342393.2487919323</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1329,15 @@
         <v>5634.0657</v>
       </c>
       <c r="G29" t="n">
-        <v>-348027.3144919323</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1359,15 @@
         <v>350</v>
       </c>
       <c r="G30" t="n">
-        <v>-347677.3144919323</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1389,15 @@
         <v>6193.968</v>
       </c>
       <c r="G31" t="n">
-        <v>-353871.2824919323</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1419,15 @@
         <v>13642.696</v>
       </c>
       <c r="G32" t="n">
-        <v>-353871.2824919323</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1449,15 @@
         <v>3587.060498220641</v>
       </c>
       <c r="G33" t="n">
-        <v>-350284.2219937117</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1479,15 @@
         <v>12636.9687</v>
       </c>
       <c r="G34" t="n">
-        <v>-362921.1906937117</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1509,15 @@
         <v>13222.5752</v>
       </c>
       <c r="G35" t="n">
-        <v>-376143.7658937117</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1539,15 @@
         <v>6788.5629</v>
       </c>
       <c r="G36" t="n">
-        <v>-369355.2029937117</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1569,15 @@
         <v>3315.7553</v>
       </c>
       <c r="G37" t="n">
-        <v>-366039.4476937117</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1599,15 @@
         <v>1492.2817</v>
       </c>
       <c r="G38" t="n">
-        <v>-366039.4476937117</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1629,15 @@
         <v>1811.843416370107</v>
       </c>
       <c r="G39" t="n">
-        <v>-364227.6042773416</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1659,15 @@
         <v>235.1618854092527</v>
       </c>
       <c r="G40" t="n">
-        <v>-364227.6042773416</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1689,15 @@
         <v>1785.1039</v>
       </c>
       <c r="G41" t="n">
-        <v>-362442.5003773416</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1719,15 @@
         <v>5347.602958221024</v>
       </c>
       <c r="G42" t="n">
-        <v>-362442.5003773416</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1749,15 @@
         <v>17062.6707</v>
       </c>
       <c r="G43" t="n">
-        <v>-379505.1710773416</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1779,15 @@
         <v>2000</v>
       </c>
       <c r="G44" t="n">
-        <v>-381505.1710773416</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1809,15 @@
         <v>36.9627</v>
       </c>
       <c r="G45" t="n">
-        <v>-381468.2083773416</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1839,15 @@
         <v>595</v>
       </c>
       <c r="G46" t="n">
-        <v>-382063.2083773416</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1869,15 @@
         <v>154.6854</v>
       </c>
       <c r="G47" t="n">
-        <v>-382063.2083773416</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1899,15 @@
         <v>25.9381</v>
       </c>
       <c r="G48" t="n">
-        <v>-382037.2702773416</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1929,15 @@
         <v>4999.9854</v>
       </c>
       <c r="G49" t="n">
-        <v>-387037.2556773416</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1959,15 @@
         <v>5728.5127</v>
       </c>
       <c r="G50" t="n">
-        <v>-392765.7683773416</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1989,15 @@
         <v>3512.5474</v>
       </c>
       <c r="G51" t="n">
-        <v>-396278.3157773416</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2019,15 @@
         <v>2669.9834</v>
       </c>
       <c r="G52" t="n">
-        <v>-393608.3323773416</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2049,15 @@
         <v>5552.3349</v>
       </c>
       <c r="G53" t="n">
-        <v>-399160.6672773416</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2079,15 @@
         <v>499.4046</v>
       </c>
       <c r="G54" t="n">
-        <v>-398661.2626773416</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2109,15 @@
         <v>4372.8707</v>
       </c>
       <c r="G55" t="n">
-        <v>-394288.3919773416</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2139,15 @@
         <v>0.5954</v>
       </c>
       <c r="G56" t="n">
-        <v>-394288.9873773415</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2169,15 @@
         <v>4817.3193</v>
       </c>
       <c r="G57" t="n">
-        <v>-389471.6680773416</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2199,15 @@
         <v>58.6258</v>
       </c>
       <c r="G58" t="n">
-        <v>-389471.6680773416</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2229,15 @@
         <v>1259.064</v>
       </c>
       <c r="G59" t="n">
-        <v>-388212.6040773416</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2259,15 @@
         <v>4988.482</v>
       </c>
       <c r="G60" t="n">
-        <v>-388212.6040773416</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2289,15 @@
         <v>3990.3626</v>
       </c>
       <c r="G61" t="n">
-        <v>-384222.2414773416</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2319,15 @@
         <v>20</v>
       </c>
       <c r="G62" t="n">
-        <v>-384202.2414773416</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2349,15 @@
         <v>1579.1651</v>
       </c>
       <c r="G63" t="n">
-        <v>-384202.2414773416</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2379,15 @@
         <v>668.2380000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-384870.4794773416</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2409,15 @@
         <v>703.2348804500704</v>
       </c>
       <c r="G65" t="n">
-        <v>-385573.7143577916</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2439,15 @@
         <v>487.9632</v>
       </c>
       <c r="G66" t="n">
-        <v>-386061.6775577916</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2469,15 @@
         <v>12505.3117</v>
       </c>
       <c r="G67" t="n">
-        <v>-398566.9892577917</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2499,15 @@
         <v>2960.7907</v>
       </c>
       <c r="G68" t="n">
-        <v>-395606.1985577916</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2529,15 @@
         <v>720.4610951008646</v>
       </c>
       <c r="G69" t="n">
-        <v>-394885.7374626908</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2559,15 @@
         <v>28491.085</v>
       </c>
       <c r="G70" t="n">
-        <v>-423376.8224626908</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2589,15 @@
         <v>29.3852</v>
       </c>
       <c r="G71" t="n">
-        <v>-423347.4372626908</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2619,15 @@
         <v>777</v>
       </c>
       <c r="G72" t="n">
-        <v>-423347.4372626908</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2649,15 @@
         <v>888</v>
       </c>
       <c r="G73" t="n">
-        <v>-423347.4372626908</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2679,15 @@
         <v>5593.1818</v>
       </c>
       <c r="G74" t="n">
-        <v>-423347.4372626908</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2709,15 @@
         <v>16310.40448604651</v>
       </c>
       <c r="G75" t="n">
-        <v>-439657.8417487373</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2739,15 @@
         <v>19836.664</v>
       </c>
       <c r="G76" t="n">
-        <v>-459494.5057487373</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2769,15 @@
         <v>107196.5678</v>
       </c>
       <c r="G77" t="n">
-        <v>-566691.0735487373</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2799,15 @@
         <v>15082.4581</v>
       </c>
       <c r="G78" t="n">
-        <v>-566691.0735487373</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2829,15 @@
         <v>1730.81</v>
       </c>
       <c r="G79" t="n">
-        <v>-568421.8835487374</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2859,15 @@
         <v>22.1064</v>
       </c>
       <c r="G80" t="n">
-        <v>-568399.7771487373</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2889,15 @@
         <v>8604.6826</v>
       </c>
       <c r="G81" t="n">
-        <v>-568399.7771487373</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2919,15 @@
         <v>1155</v>
       </c>
       <c r="G82" t="n">
-        <v>-567244.7771487373</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2949,15 @@
         <v>9665.5676</v>
       </c>
       <c r="G83" t="n">
-        <v>-567244.7771487373</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2979,15 @@
         <v>326.4346</v>
       </c>
       <c r="G84" t="n">
-        <v>-567244.7771487373</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3009,15 @@
         <v>6963.6618</v>
       </c>
       <c r="G85" t="n">
-        <v>-574208.4389487373</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3039,15 @@
         <v>30935.9516</v>
       </c>
       <c r="G86" t="n">
-        <v>-574208.4389487373</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3069,15 @@
         <v>7330.303</v>
       </c>
       <c r="G87" t="n">
-        <v>-581538.7419487373</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3099,15 @@
         <v>10993.9653</v>
       </c>
       <c r="G88" t="n">
-        <v>-592532.7072487373</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3129,15 @@
         <v>213</v>
       </c>
       <c r="G89" t="n">
-        <v>-592319.7072487373</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3159,15 @@
         <v>2138</v>
       </c>
       <c r="G90" t="n">
-        <v>-594457.7072487373</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3189,15 @@
         <v>2225</v>
       </c>
       <c r="G91" t="n">
-        <v>-594457.7072487373</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3219,15 @@
         <v>167</v>
       </c>
       <c r="G92" t="n">
-        <v>-594624.7072487373</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3249,15 @@
         <v>4838.3147</v>
       </c>
       <c r="G93" t="n">
-        <v>-589786.3925487373</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3279,15 @@
         <v>16.5292</v>
       </c>
       <c r="G94" t="n">
-        <v>-589786.3925487373</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3309,15 @@
         <v>597.5251128257388</v>
       </c>
       <c r="G95" t="n">
-        <v>-589786.3925487373</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3339,15 @@
         <v>1177.3946</v>
       </c>
       <c r="G96" t="n">
-        <v>-589786.3925487373</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3369,15 @@
         <v>10.1769</v>
       </c>
       <c r="G97" t="n">
-        <v>-589796.5694487373</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3399,15 @@
         <v>4999.9997</v>
       </c>
       <c r="G98" t="n">
-        <v>-594796.5691487374</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3429,15 @@
         <v>184.4702</v>
       </c>
       <c r="G99" t="n">
-        <v>-594981.0393487373</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3459,15 @@
         <v>0.0003</v>
       </c>
       <c r="G100" t="n">
-        <v>-594981.0390487374</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3489,15 @@
         <v>2917.027195335277</v>
       </c>
       <c r="G101" t="n">
-        <v>-592064.0118534021</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3519,15 @@
         <v>2129.3711</v>
       </c>
       <c r="G102" t="n">
-        <v>-594193.3829534021</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3549,15 @@
         <v>12281.8793</v>
       </c>
       <c r="G103" t="n">
-        <v>-594193.3829534021</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3579,15 @@
         <v>359.6521</v>
       </c>
       <c r="G104" t="n">
-        <v>-594553.0350534021</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3609,15 @@
         <v>145.9769</v>
       </c>
       <c r="G105" t="n">
-        <v>-594553.0350534021</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3639,15 @@
         <v>10536.0194</v>
       </c>
       <c r="G106" t="n">
-        <v>-594553.0350534021</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3669,15 @@
         <v>150.8649</v>
       </c>
       <c r="G107" t="n">
-        <v>-594553.0350534021</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3699,15 @@
         <v>13502.3024</v>
       </c>
       <c r="G108" t="n">
-        <v>-581050.732653402</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3729,15 @@
         <v>674.0638</v>
       </c>
       <c r="G109" t="n">
-        <v>-581050.732653402</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3759,15 @@
         <v>52.9538</v>
       </c>
       <c r="G110" t="n">
-        <v>-581103.686453402</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3789,15 @@
         <v>1675.4606</v>
       </c>
       <c r="G111" t="n">
-        <v>-581103.686453402</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3819,15 @@
         <v>2405.69</v>
       </c>
       <c r="G112" t="n">
-        <v>-583509.376453402</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3849,15 @@
         <v>35467.185</v>
       </c>
       <c r="G113" t="n">
-        <v>-618976.561453402</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3879,15 @@
         <v>124.9128</v>
       </c>
       <c r="G114" t="n">
-        <v>-618976.561453402</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3909,15 @@
         <v>22590.8077</v>
       </c>
       <c r="G115" t="n">
-        <v>-641567.369153402</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3939,15 @@
         <v>12187.5226</v>
       </c>
       <c r="G116" t="n">
-        <v>-653754.8917534021</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3969,15 @@
         <v>25</v>
       </c>
       <c r="G117" t="n">
-        <v>-653729.8917534021</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3999,15 @@
         <v>16665.4832</v>
       </c>
       <c r="G118" t="n">
-        <v>-670395.3749534021</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4029,15 @@
         <v>31</v>
       </c>
       <c r="G119" t="n">
-        <v>-670364.3749534021</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4059,15 @@
         <v>184.4702</v>
       </c>
       <c r="G120" t="n">
-        <v>-670548.8451534021</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4089,15 @@
         <v>8</v>
       </c>
       <c r="G121" t="n">
-        <v>-670540.8451534021</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,22 +4119,15 @@
         <v>10919.2695</v>
       </c>
       <c r="G122" t="n">
-        <v>-670540.8451534021</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J122" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4445,24 +4149,15 @@
         <v>49727.9585</v>
       </c>
       <c r="G123" t="n">
-        <v>-620812.8866534021</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4484,24 +4179,15 @@
         <v>10000</v>
       </c>
       <c r="G124" t="n">
-        <v>-630812.8866534021</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4523,22 +4209,15 @@
         <v>12839.5343</v>
       </c>
       <c r="G125" t="n">
-        <v>-617973.3523534022</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J125" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4560,24 +4239,15 @@
         <v>11158.2715</v>
       </c>
       <c r="G126" t="n">
-        <v>-617973.3523534022</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4599,24 +4269,15 @@
         <v>24001.2966</v>
       </c>
       <c r="G127" t="n">
-        <v>-641974.6489534022</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4638,18 +4299,15 @@
         <v>25376.5132</v>
       </c>
       <c r="G128" t="n">
-        <v>-667351.1621534022</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4671,18 +4329,15 @@
         <v>8030.4373</v>
       </c>
       <c r="G129" t="n">
-        <v>-667351.1621534022</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4704,18 +4359,15 @@
         <v>2724.1095</v>
       </c>
       <c r="G130" t="n">
-        <v>-667351.1621534022</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4737,18 +4389,15 @@
         <v>14145.1616</v>
       </c>
       <c r="G131" t="n">
-        <v>-681496.3237534022</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4770,22 +4419,15 @@
         <v>558.1639</v>
       </c>
       <c r="G132" t="n">
-        <v>-681496.3237534022</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="J132" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4807,26 +4449,15 @@
         <v>7473.766</v>
       </c>
       <c r="G133" t="n">
-        <v>-688970.0897534022</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="J133" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4848,26 +4479,15 @@
         <v>654.1259</v>
       </c>
       <c r="G134" t="n">
-        <v>-688970.0897534022</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>68</v>
-      </c>
-      <c r="J134" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4889,22 +4509,15 @@
         <v>9090.539500000001</v>
       </c>
       <c r="G135" t="n">
-        <v>-679879.5502534022</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>68</v>
-      </c>
-      <c r="J135" t="n">
-        <v>68</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4926,26 +4539,15 @@
         <v>700</v>
       </c>
       <c r="G136" t="n">
-        <v>-680579.5502534022</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="J136" t="n">
-        <v>68</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4967,26 +4569,15 @@
         <v>24.9537</v>
       </c>
       <c r="G137" t="n">
-        <v>-680554.5965534023</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="J137" t="n">
-        <v>68</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5008,26 +4599,15 @@
         <v>1255.3067</v>
       </c>
       <c r="G138" t="n">
-        <v>-681809.9032534022</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="J138" t="n">
-        <v>68</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5049,26 +4629,15 @@
         <v>302.1608</v>
       </c>
       <c r="G139" t="n">
-        <v>-682112.0640534022</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>67.94</v>
-      </c>
-      <c r="J139" t="n">
-        <v>68</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5090,26 +4659,15 @@
         <v>953.1459</v>
       </c>
       <c r="G140" t="n">
-        <v>-683065.2099534022</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J140" t="n">
-        <v>68</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
